--- a/data dictionary/数据存储描述表.xlsx
+++ b/data dictionary/数据存储描述表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clutch\Desktop\data_labeling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clutch\Desktop\data_labeling\data dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30E2B35-B03F-422C-A317-57343E9D6C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B92C326-FDB5-432A-9057-2D5B1B2708DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -191,23 +191,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户（DSTR1）、用户历史（DSTR1）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务（DSTR3）、任务要求（DSTR4）、任务状态（DSTR5）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务的分配（DSTR6）、反馈信息（DSTR7）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>标签（DSTR8）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>结果（DSTR9）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分配信息（DSTR6）、反馈信息（DSTR7）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户基本信息（DSTR1）、用户历史（DSTR1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务基本信息（DSTR3）、任务要求（DSTR4）、任务状态（DSTR5）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -342,6 +342,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -349,9 +352,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -636,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37:I37"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -648,17 +648,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
@@ -710,12 +710,12 @@
       <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
@@ -723,7 +723,7 @@
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -748,17 +748,17 @@
       <c r="I6" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5" t="s">
@@ -810,12 +810,12 @@
       <c r="E12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="13"/>
     </row>
     <row r="13" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5" t="s">
@@ -823,7 +823,7 @@
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -848,17 +848,17 @@
       <c r="I14" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="5" t="s">
@@ -910,12 +910,12 @@
       <c r="E20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="13"/>
     </row>
     <row r="21" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="5" t="s">
@@ -948,17 +948,17 @@
       <c r="I22" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
     </row>
     <row r="26" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="5" t="s">
@@ -1010,12 +1010,12 @@
       <c r="E28" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="13"/>
     </row>
     <row r="29" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="5" t="s">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1046,17 +1046,17 @@
       <c r="I30" s="9"/>
     </row>
     <row r="33" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
     </row>
     <row r="34" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="5" t="s">
@@ -1108,12 +1108,12 @@
       <c r="E36" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="F36" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="13"/>
     </row>
     <row r="37" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="5" t="s">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -1145,6 +1145,59 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:I38"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:I35"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:I37"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="F4:I4"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:I3"/>
     <mergeCell ref="A1:I1"/>
@@ -1152,59 +1205,6 @@
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="A25:I25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:I38"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:I35"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:I37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
